--- a/spliced/struggle/2023-04-11_10-23-03/data_selected.xlsx
+++ b/spliced/struggle/2023-04-11_10-23-03/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.002831595284598272</v>
+        <v>-0.01932663576943536</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.19119707601411</v>
+        <v>-0.1423560380935665</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1513774214046346</v>
+        <v>0.1704595368355508</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6229298114776611</v>
+        <v>-0.09987647086381909</v>
       </c>
       <c r="G2" t="n">
-        <v>-4.338823318481445</v>
+        <v>-0.8263479471206665</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1601994037628173</v>
+        <v>0.256868839263916</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.07765638828277598</v>
+        <v>-0.002831595284598272</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03652976825833296</v>
+        <v>-0.19119707601411</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2774001099169262</v>
+        <v>0.1513774214046346</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3721696436405182</v>
+        <v>-0.6229298114776611</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.498425245285034</v>
+        <v>-4.338823318481445</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6684392690658569</v>
+        <v>0.1601994037628173</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.3138503687722347</v>
+        <v>0.07765638828277598</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4584181170378426</v>
+        <v>-0.03652976825833296</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.157653536115375</v>
+        <v>-0.2774001099169262</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1207986027002334</v>
+        <v>-0.3721696436405182</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.66308057308197</v>
+        <v>-3.498425245285034</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5348125100135803</v>
+        <v>0.6684392690658569</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.636749148368837</v>
+        <v>0.3138503687722347</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.279087890471731</v>
+        <v>-0.4584181170378426</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.728167861700062</v>
+        <v>-1.157653536115375</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5253441333770752</v>
+        <v>0.1207986027002334</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.381013631820679</v>
+        <v>-1.66308057308197</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5633704662322998</v>
+        <v>0.5348125100135803</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.14729608808245</v>
+        <v>1.636749148368837</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2204303741455076</v>
+        <v>-1.279087890471731</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.918471813201904</v>
+        <v>-4.728167861700062</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5025894045829773</v>
+        <v>-0.5253441333770752</v>
       </c>
       <c r="G6" t="n">
-        <v>2.330298185348511</v>
+        <v>-1.381013631820679</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1441642045974731</v>
+        <v>0.5633704662322998</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.006189529384884</v>
+        <v>1.14729608808245</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.457232869097163</v>
+        <v>-0.2204303741455076</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.90848708152771</v>
+        <v>-3.918471813201904</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8329147696495056</v>
+        <v>0.5025894045829773</v>
       </c>
       <c r="G7" t="n">
-        <v>6.17554235458374</v>
+        <v>2.330298185348511</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.043815970420837</v>
+        <v>0.1441642045974731</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.098220126969473</v>
+        <v>-1.006189529384884</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.104542408670699</v>
+        <v>-0.457232869097163</v>
       </c>
       <c r="E8" t="n">
-        <v>1.474607501711155</v>
+        <v>-1.90848708152771</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0348193198442459</v>
+        <v>0.8329147696495056</v>
       </c>
       <c r="G8" t="n">
-        <v>5.04437255859375</v>
+        <v>6.17554235458374</v>
       </c>
       <c r="H8" t="n">
-        <v>0.868803083896637</v>
+        <v>-1.043815970420837</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5.035840166466564</v>
+        <v>-2.098220126969473</v>
       </c>
       <c r="D9" t="n">
-        <v>1.3544525780848</v>
+        <v>-1.104542408670699</v>
       </c>
       <c r="E9" t="n">
-        <v>6.731560809271667</v>
+        <v>1.474607501711155</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2368630021810531</v>
+        <v>0.0348193198442459</v>
       </c>
       <c r="G9" t="n">
-        <v>1.756695747375489</v>
+        <v>5.04437255859375</v>
       </c>
       <c r="H9" t="n">
-        <v>0.40943244099617</v>
+        <v>0.868803083896637</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-7.820377826690675</v>
+        <v>-5.035840166466564</v>
       </c>
       <c r="D10" t="n">
-        <v>2.300654053688046</v>
+        <v>1.3544525780848</v>
       </c>
       <c r="E10" t="n">
-        <v>7.095898866653437</v>
+        <v>6.731560809271667</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0340557359158992</v>
+        <v>-0.2368630021810531</v>
       </c>
       <c r="G10" t="n">
-        <v>2.139860868453979</v>
+        <v>1.756695747375489</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6606507897377014</v>
+        <v>0.40943244099617</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1.805607523236966</v>
+        <v>-7.820377826690675</v>
       </c>
       <c r="D11" t="n">
-        <v>2.29458946415356</v>
+        <v>2.300654053688046</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1832081420081089</v>
+        <v>7.095898866653437</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1806633919477462</v>
+        <v>-0.0340557359158992</v>
       </c>
       <c r="G11" t="n">
-        <v>1.172861218452454</v>
+        <v>2.139860868453979</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4958698749542236</v>
+        <v>0.6606507897377014</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.364815167018334</v>
+        <v>-1.805607523236966</v>
       </c>
       <c r="D12" t="n">
-        <v>1.71517636094774</v>
+        <v>2.29458946415356</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.800688726561401</v>
+        <v>0.1832081420081089</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08704829961061469</v>
+        <v>0.1806633919477462</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.714518785476685</v>
+        <v>1.172861218452454</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.6794348955154419</v>
+        <v>0.4958698749542236</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.538227507046292</v>
+        <v>1.364815167018334</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1809541881084444</v>
+        <v>1.71517636094774</v>
       </c>
       <c r="E13" t="n">
-        <v>1.764710307121269</v>
+        <v>-2.800688726561401</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1391245573759079</v>
+        <v>0.08704829961061469</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.393468379974365</v>
+        <v>-3.714518785476685</v>
       </c>
       <c r="H13" t="n">
-        <v>-4.738176345825195</v>
+        <v>-0.6794348955154419</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-2.092569351196289</v>
+        <v>-2.538227507046292</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6709982327052525</v>
+        <v>-0.1809541881084444</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.201459612165179</v>
+        <v>1.764710307121269</v>
       </c>
       <c r="F14" t="n">
-        <v>1.760971784591675</v>
+        <v>0.1391245573759079</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.517847418785095</v>
+        <v>-6.393468379974365</v>
       </c>
       <c r="H14" t="n">
-        <v>1.018465042114258</v>
+        <v>-4.738176345825195</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.829659972872078</v>
+        <v>-2.092569351196289</v>
       </c>
       <c r="D15" t="n">
-        <v>1.32810748687812</v>
+        <v>0.6709982327052525</v>
       </c>
       <c r="E15" t="n">
-        <v>-7.335261804716874</v>
+        <v>-5.201459612165179</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.008552113547921099</v>
+        <v>1.760971784591675</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.238488674163818</v>
+        <v>-1.517847418785095</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.0195476878434419</v>
+        <v>1.018465042114258</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5.789446592330947</v>
+        <v>2.829659972872078</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.9393511286803589</v>
+        <v>1.32810748687812</v>
       </c>
       <c r="E16" t="n">
-        <v>7.550768171037943</v>
+        <v>-7.335261804716874</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4407392740249634</v>
+        <v>-0.008552113547921099</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.014314651489258</v>
+        <v>-4.238488674163818</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.6562219858169556</v>
+        <v>-0.0195476878434419</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.6611437201499961</v>
+        <v>5.789446592330947</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.4462269321084</v>
+        <v>-0.9393511286803589</v>
       </c>
       <c r="E17" t="n">
-        <v>5.736638069152827</v>
+        <v>7.550768171037943</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1287398487329483</v>
+        <v>0.4407392740249634</v>
       </c>
       <c r="G17" t="n">
-        <v>2.51019811630249</v>
+        <v>-3.014314651489258</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.0731511116027832</v>
+        <v>-0.6562219858169556</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.795438630240309</v>
+        <v>-0.6611437201499961</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.6667117263589585</v>
+        <v>-2.4462269321084</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3705058097839308</v>
+        <v>5.736638069152827</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2913827300071716</v>
+        <v>-0.1287398487329483</v>
       </c>
       <c r="G18" t="n">
-        <v>6.333756446838379</v>
+        <v>2.51019811630249</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9952521920204164</v>
+        <v>-0.0731511116027832</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-2.502477117947166</v>
+        <v>-1.795438630240309</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.6020157241395544</v>
+        <v>-0.6667117263589585</v>
       </c>
       <c r="E19" t="n">
-        <v>4.68433271135602</v>
+        <v>0.3705058097839308</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.667662143707275</v>
+        <v>0.2913827300071716</v>
       </c>
       <c r="G19" t="n">
-        <v>4.299574851989746</v>
+        <v>6.333756446838379</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0829249545931816</v>
+        <v>0.9952521920204164</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-9.597015057291248</v>
+        <v>-2.502477117947166</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.637856924108093</v>
+        <v>-0.6020157241395544</v>
       </c>
       <c r="E20" t="n">
-        <v>7.518706285527828</v>
+        <v>4.68433271135602</v>
       </c>
       <c r="F20" t="n">
-        <v>1.54808521270752</v>
+        <v>-1.667662143707275</v>
       </c>
       <c r="G20" t="n">
-        <v>2.839301586151123</v>
+        <v>4.299574851989746</v>
       </c>
       <c r="H20" t="n">
-        <v>1.368032693862915</v>
+        <v>0.0829249545931816</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-9.597015057291248</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.637856924108093</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7.518706285527828</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.54808521270752</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.839301586151123</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.368032693862915</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>-10.96845097201216</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>-0.236061673079225</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E22" t="n">
         <v>-2.280897122408647</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F22" t="n">
         <v>0.0797179117798805</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G22" t="n">
         <v>3.36098051071167</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>0.3753767013549804</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2.115621226174531</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9094340460641233</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-5.153596741812609</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4167627990245819</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.646892666816711</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.836885392665863</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.750307172536849</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-1.468972404088292</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.1615269269261984</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5007568001747131</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-1.671174645423889</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.2092213481664657</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-3.695782780647288</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.6018874943256158</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.057165026664715</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0099265603348612</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-3.577379703521729</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.4952589869499206</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-5.04273155757359</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.776979684829711</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-3.505371774945944</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-1.279915452003479</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-6.508005619049072</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.1085812970995903</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.32667221341812</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9583009992326832</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-5.241142443248169</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.9758572578430176</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-1.915215253829956</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.272432327270508</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2.433021928582876</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-2.759944068534038</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.60468020609447</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0806342139840126</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1.140027284622192</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0485637858510017</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.125196490968979</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5359780830996369</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.942476987838745</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.8413141369819641</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.3859141170978546</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.5590944290161133</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-3.455752406801498</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2274821900895648</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.951905420848299</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.1750128865242004</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.383749008178711</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.1401935666799545</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-2.549259322030204</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.480571014540536</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.463431903294155</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.4100432991981506</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.355190992355347</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.1059851199388504</v>
       </c>
     </row>
   </sheetData>
